--- a/Parts Lists.xlsx
+++ b/Parts Lists.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="107">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -302,12 +302,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>16 Pin Header</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Wurth-Elektronik/61301611121?qs=PhR8RmCirEYq%2F9PEO1%2F%252B%252Bg%3D%3D</t>
-  </si>
-  <si>
     <t>Wire to board Contact(Green)</t>
   </si>
   <si>
@@ -318,15 +312,38 @@
   </si>
   <si>
     <t>https://www.mouser.com/ProductDetail/TE-Connectivity-Alcoswitch/A101SYCB04?qs=M5Ic86%252BuP8bTcINqRB77%252BQ%3D%3D</t>
+  </si>
+  <si>
+    <t>16 Pin IC Socket</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/on-shore-technology-inc/ED16DT/4147596</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>4pcb.com</t>
+  </si>
+  <si>
+    <t>Power Adapter 5V 30W</t>
+  </si>
+  <si>
+    <t>GST60A05-P1J MEAN WELL USA Inc. | Power Supplies - External/Internal (Off-Board) | DigiKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total = </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -389,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -415,6 +432,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -677,7 +701,7 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -691,7 +715,7 @@
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -705,7 +729,7 @@
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -719,7 +743,7 @@
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -733,7 +757,7 @@
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -747,7 +771,7 @@
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -761,7 +785,7 @@
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -775,7 +799,7 @@
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -789,7 +813,7 @@
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -803,7 +827,7 @@
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -817,7 +841,7 @@
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -831,7 +855,7 @@
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -845,7 +869,7 @@
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -859,7 +883,7 @@
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -867,7 +891,7 @@
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -881,7 +905,7 @@
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="4"/>
@@ -894,7 +918,7 @@
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -902,7 +926,7 @@
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="2">
@@ -913,7 +937,7 @@
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="2">
@@ -931,7 +955,7 @@
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="2">
@@ -949,7 +973,7 @@
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -957,7 +981,7 @@
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -965,7 +989,7 @@
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -973,7 +997,7 @@
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -989,7 +1013,7 @@
       <c r="A28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -997,7 +1021,7 @@
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D29" s="4">
@@ -1008,7 +1032,7 @@
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="4">
@@ -1019,7 +1043,7 @@
       <c r="A31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D31" s="4">
@@ -1030,7 +1054,7 @@
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D32" s="4">
@@ -1041,7 +1065,7 @@
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D33" s="4">
@@ -1052,7 +1076,7 @@
       <c r="A34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D34" s="4">
@@ -1063,7 +1087,7 @@
       <c r="A35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D35" s="4">
@@ -1074,7 +1098,7 @@
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1155,7 +1179,7 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2">
@@ -1173,7 +1197,7 @@
       <c r="A3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="2">
@@ -1191,7 +1215,7 @@
       <c r="A4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="2">
@@ -1209,7 +1233,7 @@
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="2">
@@ -1227,7 +1251,7 @@
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C6" s="2">
@@ -1245,7 +1269,7 @@
       <c r="A7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C7" s="2">
@@ -1263,7 +1287,7 @@
       <c r="A8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C8" s="2">
@@ -1281,7 +1305,7 @@
       <c r="A9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="2">
@@ -1302,7 +1326,7 @@
       <c r="A10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C10" s="2">
@@ -1320,7 +1344,7 @@
       <c r="A11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="2">
@@ -1338,7 +1362,7 @@
       <c r="A12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C12" s="2">
@@ -1356,7 +1380,7 @@
       <c r="A13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C13" s="2">
@@ -1374,7 +1398,7 @@
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1389,7 +1413,7 @@
       <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1397,7 +1421,7 @@
       <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1405,7 +1429,7 @@
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1413,7 +1437,7 @@
       <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1421,7 +1445,7 @@
       <c r="A19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1429,7 +1453,7 @@
       <c r="A20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1437,41 +1461,123 @@
       <c r="A21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.96</v>
-      </c>
+      <c r="A23" s="9">
+        <v>44949.0</v>
+      </c>
+      <c r="D23" s="4"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5.0</v>
       </c>
       <c r="D24" s="4">
         <v>1.32</v>
       </c>
+      <c r="E24" s="6">
+        <f t="shared" ref="E24:E27" si="4">C24*D24</f>
+        <v>6.6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.0</v>
       </c>
       <c r="D25" s="4">
         <v>5.39</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="4"/>
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="4"/>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D27" s="10">
+        <v>30.0</v>
+      </c>
+      <c r="E27" s="11">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="6">
+        <f>E14+E24+E25+E26+E27</f>
+        <v>280.04</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8">
+        <v>44951.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>22.04</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="6">
+        <f>D30+D28</f>
+        <v>302.08</v>
       </c>
     </row>
   </sheetData>
@@ -1496,10 +1602,12 @@
     <hyperlink r:id="rId18" ref="B19"/>
     <hyperlink r:id="rId19" ref="B20"/>
     <hyperlink r:id="rId20" ref="B21"/>
-    <hyperlink r:id="rId21" ref="B23"/>
-    <hyperlink r:id="rId22" ref="B24"/>
-    <hyperlink r:id="rId23" ref="B25"/>
+    <hyperlink r:id="rId21" ref="B24"/>
+    <hyperlink r:id="rId22" ref="B25"/>
+    <hyperlink r:id="rId23" ref="B26"/>
+    <hyperlink r:id="rId24" ref="B27"/>
+    <hyperlink r:id="rId25" ref="B30"/>
   </hyperlinks>
-  <drawing r:id="rId24"/>
+  <drawing r:id="rId26"/>
 </worksheet>
 </file>